--- a/biology/Botanique/Adansonia_grandidieri/Adansonia_grandidieri.xlsx
+++ b/biology/Botanique/Adansonia_grandidieri/Adansonia_grandidieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Baobab de Grandidier (Adansonia grandidieri) est une espèce d'arbres de la famille des Bombacaceae selon la classification classique, ou de celle des Malvaceae selon la classification phylogénétique.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est la plus grande des six espèces de baobabs endémiques de Madagascar. Certains individus atteignent 30 mètres de hauteur et 7,5 mètres de diamètre[1]. L'espèce est classée en danger d'extinction sur la liste rouge de l'UICN. Adansonia grandidieri est mondialement connu grâce au peuplement de la spectaculaire allée des baobabs située près de Morondava, sur la côte sud ouest de l'île rouge.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la plus grande des six espèces de baobabs endémiques de Madagascar. Certains individus atteignent 30 mètres de hauteur et 7,5 mètres de diamètre. L'espèce est classée en danger d'extinction sur la liste rouge de l'UICN. Adansonia grandidieri est mondialement connu grâce au peuplement de la spectaculaire allée des baobabs située près de Morondava, sur la côte sud ouest de l'île rouge.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithète spécifique grandidieri rend hommage au botaniste et explorateur français, Alfred Grandidier.
 </t>
